--- a/pred_ohlcv/54_21/2020-01-14 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 DAC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>416740.4520809524</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>491240.4520809524</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>761303.1977809523</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>446301.2086809523</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>446301.2086809523</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>414324.7549809523</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>470433.3008809523</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>424066.7618809523</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>632131.6672809522</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>679832.2641809522</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>632691.5786809522</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>668476.8524809522</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1003166.473280952</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>665281.1683809521</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>872587.0359875889</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1006676.048187589</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>948668.6037875889</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>780631.8648875889</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>637471.1346875889</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>686074.4918875889</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>844912.9626875889</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>785359.4351875889</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>934244.370187589</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>918917.888287589</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>1444363.063187589</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1425363.738187589</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1468788.931987589</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1518378.717787589</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1476353.089987589</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>965505.8290875891</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1006884.808687589</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>961789.957587589</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1048316.430187589</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1071626.689187589</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>1001239.861187589</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>1019024.994287589</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>983799.9164875891</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>949981.2463875891</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>988984.2615875892</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>934422.8436875892</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>933015.7455875892</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>882081.4877875892</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>912084.3881875892</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>874099.2472875892</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>810713.4660875893</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>763802.1078875893</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>764104.3498875893</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-1241727.873643753</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-1729474.690643753</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-1726417.539443753</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-1766187.581443753</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-2655411.617728683</v>
       </c>
       <c r="H810">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-2843271.534228683</v>
       </c>
       <c r="H811">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-2545743.513328683</v>
       </c>
       <c r="H812">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-2552830.594728683</v>
       </c>
       <c r="H814">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-2471630.140828684</v>
       </c>
       <c r="H816">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-2511692.834928683</v>
       </c>
       <c r="H818">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-2464518.658328684</v>
       </c>
       <c r="H819">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-2511521.884828683</v>
       </c>
       <c r="H820">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-2487769.426328683</v>
       </c>
       <c r="H821">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-2523326.781328683</v>
       </c>
       <c r="H822">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-2456703.746128683</v>
       </c>
       <c r="H823">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-2503704.015428683</v>
       </c>
       <c r="H824">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-2472880.848028683</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-2514439.194128683</v>
       </c>
       <c r="H826">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-2558354.748728683</v>
       </c>
       <c r="H827">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-2528075.047128683</v>
       </c>
       <c r="H828">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-2485430.422428683</v>
       </c>
       <c r="H829">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-2537883.097328683</v>
       </c>
       <c r="H830">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-2558973.590628684</v>
       </c>
       <c r="H831">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-2497581.483128684</v>
       </c>
       <c r="H832">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-2519187.533628684</v>
       </c>
       <c r="H833">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-2564465.731828684</v>
       </c>
       <c r="H834">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-2498654.291928683</v>
       </c>
       <c r="H835">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-2421700.398328683</v>
       </c>
       <c r="H836">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-2441997.108028683</v>
       </c>
       <c r="H843">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-2404211.787028683</v>
       </c>
       <c r="H844">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-2357732.000028683</v>
       </c>
       <c r="H845">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-2394906.296428683</v>
       </c>
       <c r="H846">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-2345319.912128683</v>
       </c>
       <c r="H847">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-2391241.778528683</v>
       </c>
       <c r="H853">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-2428708.618228683</v>
       </c>
       <c r="H855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-2473211.216628683</v>
       </c>
       <c r="H856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-2426670.910528683</v>
       </c>
       <c r="H857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-2482863.269028683</v>
       </c>
       <c r="H858">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-2439648.230028683</v>
       </c>
       <c r="H859">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-2461776.009528683</v>
       </c>
       <c r="H864">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-2418028.121228683</v>
       </c>
       <c r="H865">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-2462454.917928683</v>
       </c>
       <c r="H866">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-2422972.730928683</v>
       </c>
       <c r="H867">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-2473342.081528683</v>
       </c>
       <c r="H868">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-2420541.108528683</v>
       </c>
       <c r="H869">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-2445529.718828683</v>
       </c>
       <c r="H870">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-2451427.635928683</v>
       </c>
       <c r="H875">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-2564464.879828683</v>
       </c>
       <c r="H886">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-2967673.055528682</v>
       </c>
       <c r="H927">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-2924918.205528682</v>
       </c>
       <c r="H928">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-2962806.327328682</v>
       </c>
       <c r="H929">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-2962806.327328682</v>
       </c>
       <c r="H930">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-2917872.424528682</v>
       </c>
       <c r="H931">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-2951091.443728682</v>
       </c>
       <c r="H932">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-2884997.815028682</v>
       </c>
       <c r="H933">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-2831587.758228682</v>
       </c>
       <c r="H934">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-2872368.843228682</v>
       </c>
       <c r="H935">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-2889042.529628682</v>
       </c>
       <c r="H936">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-2934409.640528683</v>
       </c>
       <c r="H937">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-2990690.261428683</v>
       </c>
       <c r="H938">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-2963000.126628682</v>
       </c>
       <c r="H939">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-2996165.926628682</v>
       </c>
       <c r="H940">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-2996165.926628682</v>
       </c>
       <c r="H941">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-3036138.574028682</v>
       </c>
       <c r="H942">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-2990257.519828682</v>
       </c>
       <c r="H943">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-2943595.923228682</v>
       </c>
       <c r="H944">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-3002002.828228682</v>
       </c>
       <c r="H945">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-2964968.614428682</v>
       </c>
       <c r="H946">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-2916393.614828682</v>
       </c>
       <c r="H947">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-2953390.412628682</v>
       </c>
       <c r="H948">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-2934325.460828682</v>
       </c>
       <c r="H949">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-2949036.378428682</v>
       </c>
       <c r="H950">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-3006412.157528682</v>
       </c>
       <c r="H951">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-2990736.122728682</v>
       </c>
       <c r="H952">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-2919825.788628682</v>
       </c>
       <c r="H953">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-2951569.855428682</v>
       </c>
       <c r="H954">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-2893397.524528682</v>
       </c>
       <c r="H955">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-2972557.907328682</v>
       </c>
       <c r="H956">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-2972557.907328682</v>
       </c>
       <c r="H957">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-2941972.336928681</v>
       </c>
       <c r="H958">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-2984334.286328681</v>
       </c>
       <c r="H959">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-3032793.101628681</v>
       </c>
       <c r="H960">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-2981737.680328681</v>
       </c>
       <c r="H961">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-3018912.056228681</v>
       </c>
       <c r="H962">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-3034655.459628681</v>
       </c>
       <c r="H964">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-3108316.250828681</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-3136905.25532868</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1014" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 DAC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>416740.4520809524</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>491240.4520809524</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>761303.1977809523</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>446301.2086809523</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>446301.2086809523</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>414324.7549809523</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>470433.3008809523</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>424066.7618809523</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>632131.6672809522</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>679832.2641809522</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>632691.5786809522</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>668476.8524809522</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1003166.473280952</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -834,7 +834,7 @@
         <v>872587.0359875889</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1006676.048187589</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>948668.6037875889</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>780631.8648875889</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>637471.1346875889</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>686074.4918875889</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>844912.9626875889</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>785359.4351875889</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>934244.370187589</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>918917.888287589</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>1444363.063187589</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1425363.738187589</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1468788.931987589</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1518378.717787589</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1476353.089987589</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>965505.8290875891</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1006884.808687589</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>961789.957587589</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>981599.6293875891</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1048316.430187589</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1071626.689187589</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>1001239.861187589</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>1019024.994287589</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>983799.9164875891</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>949981.2463875891</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>988984.2615875892</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>934422.8436875892</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>933015.7455875892</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>882081.4877875892</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>874099.2472875892</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>810713.4660875893</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-1241727.873643753</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-1729474.690643753</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-1726417.539443753</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-1766187.581443753</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-2511692.834928683</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-2503704.015428683</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-2472880.848028683</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-2514439.194128683</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-2528075.047128683</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-2485430.422428683</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-2497581.483128684</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-2519187.533628684</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-2498654.291928683</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-2917872.424528682</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-2884997.815028682</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-2872368.843228682</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-2889042.529628682</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-2934409.640528683</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-2990690.261428683</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-2963000.126628682</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-2996165.926628682</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-3036138.574028682</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-2990257.519828682</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-2943595.923228682</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-3002002.828228682</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-2964968.614428682</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-2916393.614828682</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-2953390.412628682</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-2934325.460828682</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-2949036.378428682</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-3006412.157528682</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-2990736.122728682</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-2919825.788628682</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-2951569.855428682</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-2893397.524528682</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-2972557.907328682</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-2972557.907328682</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-2941972.336928681</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-2984334.286328681</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-3032793.101628681</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-2981737.680328681</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-3018912.056228681</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-3034655.459628681</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-2896760.03492868</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
